--- a/scoresheets_clean/IBSS.xlsx
+++ b/scoresheets_clean/IBSS.xlsx
@@ -5,12 +5,12 @@
   <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kschaumberg/Desktop/BAM-data-cleaning/scoresheets_clean/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kschaumb/Desktop/BAM-data-cleaning/scoresheets_clean/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{35511E47-A2A0-6A4A-8A7C-223CF707E334}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{0BDB553A-E609-1945-A38D-FB37A10017AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6560" yWindow="760" windowWidth="23680" windowHeight="13620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28960" yWindow="9340" windowWidth="23680" windowHeight="13620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IBSS_scoresheet" sheetId="1" r:id="rId1"/>
@@ -1075,7 +1075,7 @@
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/scoresheets_clean/IBSS.xlsx
+++ b/scoresheets_clean/IBSS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kschaumb/Desktop/BAM-data-cleaning/scoresheets_clean/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/kschaumberg/BAM/BAM-data-cleaning/scoresheets_clean/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{0BDB553A-E609-1945-A38D-FB37A10017AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{2B2D89B9-0564-DC48-9C28-74A92C96DD1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28960" yWindow="9340" windowWidth="23680" windowHeight="13620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3800" yWindow="760" windowWidth="26440" windowHeight="13580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IBSS_scoresheet" sheetId="1" r:id="rId1"/>
@@ -1075,7 +1075,7 @@
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
